--- a/Thesis code/Solutions/solutionsModifiedWithMotifs.xlsx
+++ b/Thesis code/Solutions/solutionsModifiedWithMotifs.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1932,6 +1932,586 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B53" t="n">
+        <v>71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>72</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B55" t="n">
+        <v>55</v>
+      </c>
+      <c r="C55" t="n">
+        <v>92</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B56" t="n">
+        <v>59</v>
+      </c>
+      <c r="C56" t="n">
+        <v>67</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B57" t="n">
+        <v>37</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B60" t="n">
+        <v>60</v>
+      </c>
+      <c r="C60" t="n">
+        <v>67</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="n">
+        <v>43</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B62" t="n">
+        <v>63</v>
+      </c>
+      <c r="C62" t="n">
+        <v>66</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B65" t="n">
+        <v>35</v>
+      </c>
+      <c r="C65" t="n">
+        <v>36</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B66" t="n">
+        <v>26</v>
+      </c>
+      <c r="C66" t="n">
+        <v>31</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B67" t="n">
+        <v>52</v>
+      </c>
+      <c r="C67" t="n">
+        <v>53</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B68" t="n">
+        <v>24</v>
+      </c>
+      <c r="C68" t="n">
+        <v>31</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B69" t="n">
+        <v>51</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B70" t="n">
+        <v>43</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B71" t="n">
+        <v>47</v>
+      </c>
+      <c r="C71" t="n">
+        <v>48</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1946,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,7 +2572,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -2190,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2457,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2480,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2515,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2564,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2631,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2651,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2709,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2744,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2796,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2828,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -2941,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2973,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3002,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3028,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3060,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3118,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -3234,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3292,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3318,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3353,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3405,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -3434,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3443,6 +4023,586 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B52" t="n">
+        <v>58</v>
+      </c>
+      <c r="C52" t="n">
+        <v>69</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="n">
+        <v>39</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B54" t="n">
+        <v>39</v>
+      </c>
+      <c r="C54" t="n">
+        <v>40</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B55" t="n">
+        <v>23</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="n">
+        <v>43</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B59" t="n">
+        <v>74</v>
+      </c>
+      <c r="C59" t="n">
+        <v>81</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B60" t="n">
+        <v>65</v>
+      </c>
+      <c r="C60" t="n">
+        <v>66</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>67</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66</v>
+      </c>
+      <c r="C62" t="n">
+        <v>83</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B64" t="n">
+        <v>77</v>
+      </c>
+      <c r="C64" t="n">
+        <v>80</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B65" t="n">
+        <v>43</v>
+      </c>
+      <c r="C65" t="n">
+        <v>44</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B66" t="n">
+        <v>60</v>
+      </c>
+      <c r="C66" t="n">
+        <v>68</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B67" t="n">
+        <v>51</v>
+      </c>
+      <c r="C67" t="n">
+        <v>59</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>17</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B69" t="n">
+        <v>58</v>
+      </c>
+      <c r="C69" t="n">
+        <v>60</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56</v>
+      </c>
+      <c r="C70" t="n">
+        <v>78</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B71" t="n">
+        <v>57</v>
+      </c>
+      <c r="C71" t="n">
+        <v>94</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3457,7 +4617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,6 +4661,11 @@
           <t>Motif #2</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Motif #3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3527,6 +4692,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3553,6 +4721,9 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3579,6 +4750,9 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3600,9 +4774,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3631,6 +4808,9 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3657,6 +4837,9 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3683,6 +4866,9 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3701,13 +4887,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3735,6 +4924,9 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3761,6 +4953,9 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3787,6 +4982,9 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3813,6 +5011,9 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3839,6 +5040,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3865,6 +5069,9 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3891,6 +5098,9 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3909,12 +5119,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3943,6 +5156,9 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3969,6 +5185,9 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3987,12 +5206,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4021,6 +5243,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4047,6 +5272,9 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4073,6 +5301,9 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4099,6 +5330,9 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4125,6 +5359,9 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4151,6 +5388,9 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4177,6 +5417,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -4203,6 +5446,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4221,12 +5467,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,13 +5496,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4281,6 +5533,9 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4307,6 +5562,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4328,9 +5586,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4357,6 +5618,9 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4385,6 +5649,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4411,6 +5678,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4437,6 +5707,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4463,6 +5736,9 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4489,6 +5765,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4507,13 +5786,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4541,6 +5823,9 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4567,6 +5852,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4593,6 +5881,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4619,6 +5910,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4645,6 +5939,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4671,6 +5968,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4697,6 +5997,9 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4723,6 +6026,9 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4741,13 +6047,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4775,6 +6084,9 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4799,6 +6111,589 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B52" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>59</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B57" t="n">
+        <v>40</v>
+      </c>
+      <c r="C57" t="n">
+        <v>48</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B58" t="n">
+        <v>35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>79</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B59" t="n">
+        <v>64</v>
+      </c>
+      <c r="C59" t="n">
+        <v>68</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B62" t="n">
+        <v>52</v>
+      </c>
+      <c r="C62" t="n">
+        <v>53</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>42</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B65" t="n">
+        <v>60</v>
+      </c>
+      <c r="C65" t="n">
+        <v>62</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B66" t="n">
+        <v>44</v>
+      </c>
+      <c r="C66" t="n">
+        <v>45</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B67" t="n">
+        <v>76</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="n">
+        <v>44</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B69" t="n">
+        <v>25</v>
+      </c>
+      <c r="C69" t="n">
+        <v>26</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="n">
+        <v>21</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B71" t="n">
+        <v>61</v>
+      </c>
+      <c r="C71" t="n">
+        <v>62</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4813,7 +6708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,7 +6754,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -4880,16 +6775,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4944,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4973,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5005,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5205,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5286,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5344,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -5353,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5547,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -5611,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -5663,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -5724,13 +7619,13 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -5779,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5808,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -5843,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -5869,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -5933,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -5982,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -6011,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -6101,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -6185,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -6194,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -6243,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -6304,12 +8199,592 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B52" t="n">
+        <v>35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>79</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32</v>
+      </c>
+      <c r="C54" t="n">
+        <v>36</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" t="n">
+        <v>52</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B58" t="n">
+        <v>59</v>
+      </c>
+      <c r="C58" t="n">
+        <v>67</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B61" t="n">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>68</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B64" t="n">
+        <v>28</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B65" t="n">
+        <v>36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>37</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B66" t="n">
+        <v>57</v>
+      </c>
+      <c r="C66" t="n">
+        <v>58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B67" t="n">
+        <v>55</v>
+      </c>
+      <c r="C67" t="n">
+        <v>92</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B68" t="n">
+        <v>53</v>
+      </c>
+      <c r="C68" t="n">
+        <v>99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B69" t="n">
+        <v>65</v>
+      </c>
+      <c r="C69" t="n">
+        <v>66</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B70" t="n">
+        <v>57</v>
+      </c>
+      <c r="C70" t="n">
+        <v>66</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B71" t="n">
+        <v>76</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6324,7 +8799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6370,7 +8845,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -6420,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -6829,10 +9304,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6861,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6890,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7029,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -7067,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -7087,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -7148,10 +9623,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -7203,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -7238,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -7267,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -7296,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -7322,10 +9797,10 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -7493,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -7522,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -7551,13 +10026,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -7696,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -7815,12 +10290,592 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B52" t="n">
+        <v>58</v>
+      </c>
+      <c r="C52" t="n">
+        <v>78</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B53" t="n">
+        <v>55</v>
+      </c>
+      <c r="C53" t="n">
+        <v>92</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>42</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B55" t="n">
+        <v>36</v>
+      </c>
+      <c r="C55" t="n">
+        <v>37</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B56" t="n">
+        <v>60</v>
+      </c>
+      <c r="C56" t="n">
+        <v>68</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B58" t="n">
+        <v>87</v>
+      </c>
+      <c r="C58" t="n">
+        <v>88</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23</v>
+      </c>
+      <c r="C59" t="n">
+        <v>26</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57</v>
+      </c>
+      <c r="C60" t="n">
+        <v>94</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B62" t="n">
+        <v>50</v>
+      </c>
+      <c r="C62" t="n">
+        <v>51</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>68</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B64" t="n">
+        <v>73</v>
+      </c>
+      <c r="C64" t="n">
+        <v>89</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B65" t="n">
+        <v>58</v>
+      </c>
+      <c r="C65" t="n">
+        <v>69</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>87</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B67" t="n">
+        <v>51</v>
+      </c>
+      <c r="C67" t="n">
+        <v>52</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>42</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="n">
+        <v>43</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7835,7 +10890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7881,7 +10936,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -7989,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -7998,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8134,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8195,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -8256,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -8279,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -8311,13 +11366,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8366,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -8375,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -8430,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -8569,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -8578,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -8598,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -8630,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -8836,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -8897,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -8975,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -9071,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9155,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -9326,13 +12381,593 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56</v>
+      </c>
+      <c r="C52" t="n">
+        <v>92</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B55" t="n">
+        <v>71</v>
+      </c>
+      <c r="C55" t="n">
+        <v>72</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B57" t="n">
+        <v>72</v>
+      </c>
+      <c r="C57" t="n">
+        <v>79</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B59" t="n">
+        <v>80</v>
+      </c>
+      <c r="C59" t="n">
+        <v>81</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>49</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B61" t="n">
+        <v>74</v>
+      </c>
+      <c r="C61" t="n">
+        <v>81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B63" t="n">
+        <v>74</v>
+      </c>
+      <c r="C63" t="n">
+        <v>89</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B64" t="n">
+        <v>65</v>
+      </c>
+      <c r="C64" t="n">
+        <v>82</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B66" t="n">
+        <v>55</v>
+      </c>
+      <c r="C66" t="n">
+        <v>67</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B67" t="n">
+        <v>73</v>
+      </c>
+      <c r="C67" t="n">
+        <v>80</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>42</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56</v>
+      </c>
+      <c r="C70" t="n">
+        <v>78</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B71" t="n">
+        <v>51</v>
+      </c>
+      <c r="C71" t="n">
+        <v>59</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9346,7 +12981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9392,7 +13027,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -9419,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9500,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -9535,10 +13170,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -9561,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -9616,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9648,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -9674,13 +13309,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -9735,13 +13370,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -9793,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -9912,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -9941,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -9973,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -10022,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -10060,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -10080,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10115,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -10263,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -10344,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -10460,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -10489,10 +14124,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -10550,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -10573,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -10631,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -10689,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -10776,16 +14411,16 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -10811,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -10834,16 +14469,596 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B52" t="n">
+        <v>45</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73</v>
+      </c>
+      <c r="C53" t="n">
+        <v>76</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B54" t="n">
+        <v>66</v>
+      </c>
+      <c r="C54" t="n">
+        <v>67</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B56" t="n">
+        <v>76</v>
+      </c>
+      <c r="C56" t="n">
+        <v>81</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>67</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B58" t="n">
+        <v>63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B59" t="n">
+        <v>80</v>
+      </c>
+      <c r="C59" t="n">
+        <v>81</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B61" t="n">
+        <v>61</v>
+      </c>
+      <c r="C61" t="n">
+        <v>62</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B62" t="n">
+        <v>43</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22</v>
+      </c>
+      <c r="C63" t="n">
+        <v>27</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B64" t="n">
+        <v>59</v>
+      </c>
+      <c r="C64" t="n">
+        <v>67</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B65" t="n">
+        <v>50</v>
+      </c>
+      <c r="C65" t="n">
+        <v>67</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B66" t="n">
+        <v>13</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B67" t="n">
+        <v>73</v>
+      </c>
+      <c r="C67" t="n">
+        <v>75</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B69" t="n">
+        <v>95</v>
+      </c>
+      <c r="C69" t="n">
+        <v>96</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19</v>
+      </c>
+      <c r="C71" t="n">
+        <v>43</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10857,7 +15072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10901,6 +15116,11 @@
           <t>Motif #2</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Motif #3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10925,6 +15145,9 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10953,6 +15176,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10979,6 +15205,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -11005,6 +15234,9 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -11031,6 +15263,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -11057,6 +15292,9 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -11083,6 +15321,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -11109,6 +15350,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11135,6 +15379,9 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -11161,6 +15408,9 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -11187,6 +15437,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -11213,6 +15466,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -11239,6 +15495,9 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -11265,6 +15524,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -11291,6 +15553,9 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -11312,9 +15577,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11335,13 +15603,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -11369,6 +15640,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -11393,6 +15667,9 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11421,6 +15698,9 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11447,6 +15727,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11473,6 +15756,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11494,9 +15780,12 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11525,6 +15814,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -11546,9 +15838,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11577,6 +15872,9 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -11603,6 +15901,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -11629,6 +15930,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -11655,6 +15959,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -11681,6 +15988,9 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -11707,6 +16017,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -11733,6 +16046,9 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -11754,9 +16070,12 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11777,12 +16096,15 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11811,6 +16133,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -11837,6 +16162,9 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -11863,6 +16191,9 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -11884,9 +16215,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11915,6 +16249,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -11936,9 +16273,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11967,6 +16307,9 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -11988,9 +16331,12 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12019,6 +16365,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -12045,6 +16394,9 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -12071,6 +16423,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -12097,6 +16452,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -12121,6 +16479,9 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12149,6 +16510,9 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -12173,6 +16537,9 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12193,13 +16560,596 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B52" t="n">
+        <v>74</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+      <c r="C53" t="n">
+        <v>16</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B54" t="n">
+        <v>85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>86</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B55" t="n">
+        <v>75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>81</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B56" t="n">
+        <v>64</v>
+      </c>
+      <c r="C56" t="n">
+        <v>82</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>18</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B59" t="n">
+        <v>89</v>
+      </c>
+      <c r="C59" t="n">
+        <v>90</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B60" t="n">
+        <v>94</v>
+      </c>
+      <c r="C60" t="n">
+        <v>95</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B63" t="n">
+        <v>53</v>
+      </c>
+      <c r="C63" t="n">
+        <v>93</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
+        <v>28</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="n">
+        <v>43</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B69" t="n">
+        <v>57</v>
+      </c>
+      <c r="C69" t="n">
+        <v>78</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22</v>
+      </c>
+      <c r="C70" t="n">
+        <v>27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>17</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12213,7 +17163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12259,7 +17209,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -12280,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -12289,7 +17239,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12318,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12518,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -12715,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -12776,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -12921,13 +17871,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -12976,10 +17926,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -13008,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -13043,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -13098,7 +18048,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -13182,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -13298,7 +18248,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -13324,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -13385,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -13472,13 +18422,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -13594,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -13620,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -13646,13 +18596,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -13675,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -13704,12 +18654,592 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" t="n">
+        <v>39</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B54" t="n">
+        <v>76</v>
+      </c>
+      <c r="C54" t="n">
+        <v>77</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B55" t="n">
+        <v>63</v>
+      </c>
+      <c r="C55" t="n">
+        <v>68</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B56" t="n">
+        <v>26</v>
+      </c>
+      <c r="C56" t="n">
+        <v>27</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B57" t="n">
+        <v>50</v>
+      </c>
+      <c r="C57" t="n">
+        <v>67</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B60" t="n">
+        <v>64</v>
+      </c>
+      <c r="C60" t="n">
+        <v>82</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B62" t="n">
+        <v>74</v>
+      </c>
+      <c r="C62" t="n">
+        <v>89</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>17</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B67" t="n">
+        <v>63</v>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23</v>
+      </c>
+      <c r="C68" t="n">
+        <v>24</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B69" t="n">
+        <v>76</v>
+      </c>
+      <c r="C69" t="n">
+        <v>80</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B70" t="n">
+        <v>54</v>
+      </c>
+      <c r="C70" t="n">
+        <v>92</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13724,7 +19254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13770,7 +19300,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -13791,13 +19321,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13855,10 +19385,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -13881,7 +19411,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -13907,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -13939,10 +19469,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -14055,10 +19585,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -14171,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -14284,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -14319,10 +19849,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -14403,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -14554,7 +20084,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -14693,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -14757,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -14806,7 +20336,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -14838,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -14867,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -14896,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -14922,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -14931,7 +20461,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -14957,7 +20487,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -14986,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -15067,13 +20597,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -15128,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -15221,6 +20751,586 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B53" t="n">
+        <v>44</v>
+      </c>
+      <c r="C53" t="n">
+        <v>45</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B54" t="n">
+        <v>85</v>
+      </c>
+      <c r="C54" t="n">
+        <v>86</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" t="n">
+        <v>67</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B56" t="n">
+        <v>71</v>
+      </c>
+      <c r="C56" t="n">
+        <v>72</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B57" t="n">
+        <v>39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>40</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B61" t="n">
+        <v>51</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B62" t="n">
+        <v>65</v>
+      </c>
+      <c r="C62" t="n">
+        <v>87</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B63" t="n">
+        <v>75</v>
+      </c>
+      <c r="C63" t="n">
+        <v>76</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B64" t="n">
+        <v>58</v>
+      </c>
+      <c r="C64" t="n">
+        <v>61</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B65" t="n">
+        <v>82</v>
+      </c>
+      <c r="C65" t="n">
+        <v>86</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B66" t="n">
+        <v>56</v>
+      </c>
+      <c r="C66" t="n">
+        <v>58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B67" t="n">
+        <v>57</v>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B68" t="n">
+        <v>65</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="n">
+        <v>43</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15235,7 +21345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15281,7 +21391,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Motif #4</t>
+          <t>Motif #3</t>
         </is>
       </c>
     </row>
@@ -15302,13 +21412,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -15331,7 +21441,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -15389,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -15418,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -15456,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -15659,7 +21769,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -15737,10 +21847,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -15827,13 +21937,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -15917,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -15949,7 +22059,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -16030,10 +22140,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -16056,13 +22166,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -16149,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -16181,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -16201,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -16210,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -16262,10 +22372,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -16288,13 +22398,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -16375,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -16439,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -16465,7 +22575,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -16523,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -16726,12 +22836,592 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B54" t="n">
+        <v>66</v>
+      </c>
+      <c r="C54" t="n">
+        <v>68</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B56" t="n">
+        <v>57</v>
+      </c>
+      <c r="C56" t="n">
+        <v>58</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B58" t="n">
+        <v>64</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B59" t="n">
+        <v>14</v>
+      </c>
+      <c r="C59" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>78</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" t="n">
+        <v>41</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>65</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13</v>
+      </c>
+      <c r="C64" t="n">
+        <v>32</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B65" t="n">
+        <v>76</v>
+      </c>
+      <c r="C65" t="n">
+        <v>80</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>28</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B68" t="n">
+        <v>32</v>
+      </c>
+      <c r="C68" t="n">
+        <v>85</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B69" t="n">
+        <v>23</v>
+      </c>
+      <c r="C69" t="n">
+        <v>39</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>36</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B71" t="n">
+        <v>50</v>
+      </c>
+      <c r="C71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
